--- a/CETC/ExcelFile/faultDataTime2.xlsx
+++ b/CETC/ExcelFile/faultDataTime2.xlsx
@@ -16,7 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>产线名称</t>
+  </si>
+  <si>
+    <t>检测设备名称</t>
+  </si>
+  <si>
+    <t>故障名称</t>
+  </si>
+  <si>
+    <t>故障发生时间</t>
+  </si>
   <si>
     <t>2号车</t>
   </si>
@@ -49,45 +64,6 @@
   </si>
   <si>
     <t>故障2-5</t>
-  </si>
-  <si>
-    <t>9号车</t>
-  </si>
-  <si>
-    <t>故障9-1</t>
-  </si>
-  <si>
-    <t>模盒缺支检测</t>
-  </si>
-  <si>
-    <t>故障9-3</t>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-  </si>
-  <si>
-    <t>故障9-9</t>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-  </si>
-  <si>
-    <t>故障9-12</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>产线名称</t>
-  </si>
-  <si>
-    <t>检测设备名称</t>
-  </si>
-  <si>
-    <t>故障名称</t>
-  </si>
-  <si>
-    <t>故障发生时间</t>
   </si>
 </sst>
 </file>
@@ -434,35 +410,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -470,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>44440.354571759257</v>
@@ -487,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>44441.41815972222</v>
@@ -504,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>44442.864814814813</v>
@@ -521,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>44443.631122685183</v>
@@ -538,84 +515,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>44444.481203703705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44445.565416666665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44446.511967592596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44447.718472222223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44448.383715277778</v>
       </c>
     </row>
   </sheetData>
